--- a/biology/Médecine/Tunique_vaginale/Tunique_vaginale.xlsx
+++ b/biology/Médecine/Tunique_vaginale/Tunique_vaginale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tunique vaginale est la membrane séreuse qui enveloppe les testicules. Elle est issue du péritoine pendant le développement embryonnaire. Comme les autres séreuses, la tunique vaginale possède un feuillet viscéral, accolé au testicule, et un feuillet pariétal, fixé à la paroi du scrotum. Ils forment deux feuillets : le feuillet pariétal nommé périorchium et le feuillet viscéral nommé épiorchium[1].   
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tunique vaginale est la membrane séreuse qui enveloppe les testicules. Elle est issue du péritoine pendant le développement embryonnaire. Comme les autres séreuses, la tunique vaginale possède un feuillet viscéral, accolé au testicule, et un feuillet pariétal, fixé à la paroi du scrotum. Ils forment deux feuillets : le feuillet pariétal nommé périorchium et le feuillet viscéral nommé épiorchium.   
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Affections associées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hydrocèle
 Mésothéliome</t>
